--- a/output_analysis/START_4_SEC_6.0_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_4_SEC_6.0_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,435 +434,540 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10 20 54 62 69 124</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3 34 36 69 76 87</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
+        <v>86</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5 44 63 138 269</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>78</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>81 107 126 136 146</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>88</v>
+      </c>
+      <c r="E4" t="n">
         <v>98</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>99 114 139 195</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>76</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>118 147 197 244 277</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>88</v>
+      </c>
+      <c r="E6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F6" t="n">
+        <v>31</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12 15 23 32 43 150</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>85</v>
+      </c>
+      <c r="E7" t="n">
+        <v>96</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17 38 70 85 124 240</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30 62 65 103 116 296</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>92</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>45 64 78 95</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>70</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>125 198 236 273</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>69</v>
+      </c>
+      <c r="E11" t="n">
+        <v>88</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>26 92 108 157 199 253 290</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>89</v>
+      </c>
+      <c r="E12" t="n">
+        <v>96</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>58 67 68 72 91 106 142 233</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88</v>
+      </c>
+      <c r="E13" t="n">
+        <v>98</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>141 149 165</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>54</v>
+      </c>
+      <c r="E14" t="n">
+        <v>90</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>144 194</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>36</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>173 196</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>46</v>
+      </c>
+      <c r="E16" t="n">
+        <v>92</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10 16 33 47 88</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>68</v>
+      </c>
+      <c r="E17" t="n">
+        <v>98</v>
+      </c>
+      <c r="F17" t="n">
+        <v>13</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18 101 120 174 224 284</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>85</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>98 133 166 222</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>74</v>
+      </c>
+      <c r="E19" t="n">
+        <v>98</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>104 109 137 202 286</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
         <v>84</v>
       </c>
-      <c r="F2" t="n">
-        <v>98</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>203 256 278 289</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
         <v>84</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>11 25 64 131</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>90</v>
-      </c>
-      <c r="E3" t="n">
-        <v>73</v>
-      </c>
-      <c r="F3" t="n">
-        <v>90</v>
-      </c>
-      <c r="G3" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>67 87 132 146 223</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>96</v>
-      </c>
-      <c r="E4" t="n">
-        <v>66</v>
-      </c>
-      <c r="F4" t="n">
-        <v>96</v>
-      </c>
-      <c r="G4" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>70 105 119 195 240</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>90</v>
-      </c>
-      <c r="E5" t="n">
-        <v>76</v>
-      </c>
-      <c r="F5" t="n">
-        <v>90</v>
-      </c>
-      <c r="G5" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>216 237 263 272 293</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E6" t="n">
-        <v>81</v>
-      </c>
-      <c r="F6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G6" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15 59 71 85 101 115 141 238</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>98</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>38 48 82 99 169</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>81</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>49 65 133 205</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>82</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>73 83 100</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="n">
-        <v>60</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>86 179 198 220 235</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>84</v>
-      </c>
-      <c r="E11" t="n">
-        <v>76</v>
-      </c>
-      <c r="F11" t="n">
-        <v>84</v>
-      </c>
-      <c r="G11" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>14 37 94 106 177 199</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>96</v>
-      </c>
-      <c r="E12" t="n">
-        <v>88</v>
-      </c>
-      <c r="F12" t="n">
-        <v>96</v>
-      </c>
-      <c r="G12" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>41 78 84 93 108 118 143</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" t="n">
-        <v>84</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>98 130 149 162 191</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="E21" t="n">
         <v>92</v>
       </c>
-      <c r="E14" t="n">
-        <v>76</v>
-      </c>
-      <c r="F14" t="n">
-        <v>92</v>
-      </c>
-      <c r="G14" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>210 234</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>39 56 75 180 289</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>84</v>
-      </c>
-      <c r="E16" t="n">
-        <v>70</v>
-      </c>
-      <c r="F16" t="n">
-        <v>84</v>
-      </c>
-      <c r="G16" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>181 221 250 268</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>96</v>
-      </c>
-      <c r="E17" t="n">
-        <v>72</v>
-      </c>
-      <c r="F17" t="n">
-        <v>96</v>
-      </c>
-      <c r="G17" t="n">
-        <v>72</v>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
